--- a/TervoSampsa.xlsx
+++ b/TervoSampsa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tervo\Desktop\Koulu\ttc8440\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D728B621-F237-4C4F-93A9-45B63E0AAC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C456D20-D435-478C-A7DF-7AF01EA65720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,9 +228,6 @@
     <t>Sum of tasks 1-10</t>
   </si>
   <si>
-    <t>Tasks 12-20</t>
-  </si>
-  <si>
     <t>Sum of tasks 11-20</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>AB6912</t>
+  </si>
+  <si>
+    <t>Tasks 11-20</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -712,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="16"/>
     </row>
@@ -721,7 +721,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -729,7 +729,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="7">
-        <v>45166</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -770,7 +770,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -781,7 +781,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -792,7 +792,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -803,7 +803,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -814,7 +814,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -825,7 +825,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -836,7 +836,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -847,7 +847,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -867,13 +867,12 @@
         <v>52</v>
       </c>
       <c r="C19" s="10">
-        <f>SUM(C9:C18)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
@@ -1003,7 +1002,7 @@
     <row r="32" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="10">
         <f>SUM(C22:C31)</f>
@@ -1012,10 +1011,10 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1034,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -1045,7 +1044,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -1056,7 +1055,7 @@
         <v>23</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -1067,7 +1066,7 @@
         <v>24</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
@@ -1078,7 +1077,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
@@ -1089,7 +1088,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -1100,7 +1099,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
@@ -1111,7 +1110,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
@@ -1122,7 +1121,7 @@
         <v>29</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
@@ -1133,7 +1132,7 @@
         <v>30</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -1142,7 +1141,7 @@
     <row r="45" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="10">
         <f>SUM(C35:C44)</f>
@@ -1151,10 +1150,10 @@
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1302,7 +1301,7 @@
     </row>
     <row r="60" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="10">
         <f>SUM(C48:C59)</f>
@@ -1312,11 +1311,11 @@
     <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="15">
         <f>$C$19+$C$32+$C$45+$C$60</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TervoSampsa.xlsx
+++ b/TervoSampsa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tervo\Desktop\Koulu\ttc8440\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C456D20-D435-478C-A7DF-7AF01EA65720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C4D28E-C83B-4180-BB31-F90BE1ED9951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,7 +685,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -729,7 +729,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="7">
-        <v>45198</v>
+        <v>45248</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -908,7 +908,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -919,7 +919,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -930,7 +930,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -941,7 +941,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -952,7 +952,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>34</v>
       </c>
       <c r="C28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -974,7 +974,7 @@
         <v>35</v>
       </c>
       <c r="C29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -985,7 +985,7 @@
         <v>36</v>
       </c>
       <c r="C30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
         <v>37</v>
       </c>
       <c r="C31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C32" s="10">
         <f>SUM(C22:C31)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>61</v>
       </c>
       <c r="C35" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>62</v>
       </c>
       <c r="C36" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1058,7 +1058,7 @@
         <v>63</v>
       </c>
       <c r="C37" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1069,7 +1069,7 @@
         <v>64</v>
       </c>
       <c r="C38" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1080,7 +1080,7 @@
         <v>65</v>
       </c>
       <c r="C39" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1091,7 +1091,7 @@
         <v>66</v>
       </c>
       <c r="C40" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1102,7 +1102,7 @@
         <v>67</v>
       </c>
       <c r="C41" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1113,7 +1113,7 @@
         <v>68</v>
       </c>
       <c r="C42" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1124,7 +1124,7 @@
         <v>69</v>
       </c>
       <c r="C43" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>70</v>
       </c>
       <c r="C44" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C45" s="10">
         <f>SUM(C35:C44)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="C62" s="15">
         <f>$C$19+$C$32+$C$45+$C$60</f>
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/TervoSampsa.xlsx
+++ b/TervoSampsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tervo\Desktop\Koulu\ttc8440\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C4D28E-C83B-4180-BB31-F90BE1ED9951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2792CB-226F-4297-9E26-87A2CD63792C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,15 +684,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED4124D-B70E-458A-9EC1-9C28D6C5FC71}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="3" customWidth="1"/>
-    <col min="3" max="6" width="3.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="3.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="4.85546875" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -729,7 +731,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="7">
-        <v>45248</v>
+        <v>45264</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1175,7 +1177,7 @@
         <v>38</v>
       </c>
       <c r="C48" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1186,7 +1188,7 @@
         <v>39</v>
       </c>
       <c r="C49" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1197,7 +1199,7 @@
         <v>40</v>
       </c>
       <c r="C50" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1208,7 +1210,7 @@
         <v>41</v>
       </c>
       <c r="C51" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1219,7 +1221,7 @@
         <v>42</v>
       </c>
       <c r="C52" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1230,7 +1232,7 @@
         <v>43</v>
       </c>
       <c r="C53" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1241,7 +1243,7 @@
         <v>44</v>
       </c>
       <c r="C54" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1252,7 +1254,7 @@
         <v>45</v>
       </c>
       <c r="C55" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1263,7 +1265,7 @@
         <v>46</v>
       </c>
       <c r="C56" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1274,7 +1276,7 @@
         <v>47</v>
       </c>
       <c r="C57" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1285,7 +1287,7 @@
         <v>48</v>
       </c>
       <c r="C58" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -1296,7 +1298,7 @@
         <v>49</v>
       </c>
       <c r="C59" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1305,7 +1307,7 @@
       </c>
       <c r="C60" s="10">
         <f>SUM(C48:C59)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1317,7 @@
       </c>
       <c r="C62" s="15">
         <f>$C$19+$C$32+$C$45+$C$60</f>
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
